--- a/natmiOut/YoungD4/LR-pairs_lrc2p/H2-T23-Klrd1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/H2-T23-Klrd1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,55 +531,55 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>23.5503209878051</v>
+        <v>23.72136033333333</v>
       </c>
       <c r="H2">
-        <v>23.5503209878051</v>
+        <v>71.164081</v>
       </c>
       <c r="I2">
-        <v>0.236226131396707</v>
+        <v>0.2333880243108029</v>
       </c>
       <c r="J2">
-        <v>0.236226131396707</v>
+        <v>0.2333880243108029</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>2.42838078867439</v>
+        <v>0.04040533333333333</v>
       </c>
       <c r="N2">
-        <v>2.42838078867439</v>
+        <v>0.121216</v>
       </c>
       <c r="O2">
-        <v>0.6006211821789871</v>
+        <v>0.009158328487187175</v>
       </c>
       <c r="P2">
-        <v>0.6006211821789871</v>
+        <v>0.009158328487187173</v>
       </c>
       <c r="Q2">
-        <v>57.18914705390119</v>
+        <v>0.9584694713884445</v>
       </c>
       <c r="R2">
-        <v>57.18914705390119</v>
+        <v>8.626225242496</v>
       </c>
       <c r="S2">
-        <v>0.1418824183010589</v>
+        <v>0.002137444191613959</v>
       </c>
       <c r="T2">
-        <v>0.1418824183010589</v>
+        <v>0.002137444191613958</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,60 +593,60 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>23.5503209878051</v>
+        <v>23.72136033333333</v>
       </c>
       <c r="H3">
-        <v>23.5503209878051</v>
+        <v>71.164081</v>
       </c>
       <c r="I3">
-        <v>0.236226131396707</v>
+        <v>0.2333880243108029</v>
       </c>
       <c r="J3">
-        <v>0.236226131396707</v>
+        <v>0.2333880243108029</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.61473467366161</v>
+        <v>2.697694</v>
       </c>
       <c r="N3">
-        <v>1.61473467366161</v>
+        <v>8.093081999999999</v>
       </c>
       <c r="O3">
-        <v>0.399378817821013</v>
+        <v>0.6114630364782021</v>
       </c>
       <c r="P3">
-        <v>0.399378817821013</v>
+        <v>0.611463036478202</v>
       </c>
       <c r="Q3">
-        <v>38.02751987486963</v>
+        <v>63.99297144307133</v>
       </c>
       <c r="R3">
-        <v>38.02751987486963</v>
+        <v>575.9367429876419</v>
       </c>
       <c r="S3">
-        <v>0.0943437130956481</v>
+        <v>0.142708150022732</v>
       </c>
       <c r="T3">
-        <v>0.0943437130956481</v>
+        <v>0.142708150022732</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,55 +655,55 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>13.7016272907985</v>
+        <v>23.72136033333333</v>
       </c>
       <c r="H4">
-        <v>13.7016272907985</v>
+        <v>71.164081</v>
       </c>
       <c r="I4">
-        <v>0.1374368701989625</v>
+        <v>0.2333880243108029</v>
       </c>
       <c r="J4">
-        <v>0.1374368701989625</v>
+        <v>0.2333880243108029</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.42838078867439</v>
+        <v>1.673768333333333</v>
       </c>
       <c r="N4">
-        <v>2.42838078867439</v>
+        <v>5.021305</v>
       </c>
       <c r="O4">
-        <v>0.6006211821789871</v>
+        <v>0.3793786350346109</v>
       </c>
       <c r="P4">
-        <v>0.6006211821789871</v>
+        <v>0.3793786350346108</v>
       </c>
       <c r="Q4">
-        <v>33.2727684865518</v>
+        <v>39.70406174952278</v>
       </c>
       <c r="R4">
-        <v>33.2727684865518</v>
+        <v>357.336555745705</v>
       </c>
       <c r="S4">
-        <v>0.08254749545388086</v>
+        <v>0.08854243009645699</v>
       </c>
       <c r="T4">
-        <v>0.08254749545388086</v>
+        <v>0.08854243009645697</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>13.7016272907985</v>
+        <v>13.94839233333333</v>
       </c>
       <c r="H5">
-        <v>13.7016272907985</v>
+        <v>41.845177</v>
       </c>
       <c r="I5">
-        <v>0.1374368701989625</v>
+        <v>0.1372344453793459</v>
       </c>
       <c r="J5">
-        <v>0.1374368701989625</v>
+        <v>0.137234445379346</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>1.61473467366161</v>
+        <v>0.04040533333333333</v>
       </c>
       <c r="N5">
-        <v>1.61473467366161</v>
+        <v>0.121216</v>
       </c>
       <c r="O5">
-        <v>0.399378817821013</v>
+        <v>0.009158328487187175</v>
       </c>
       <c r="P5">
-        <v>0.399378817821013</v>
+        <v>0.009158328487187173</v>
       </c>
       <c r="Q5">
-        <v>22.12449267204052</v>
+        <v>0.5635894416924444</v>
       </c>
       <c r="R5">
-        <v>22.12449267204052</v>
+        <v>5.072304975232</v>
       </c>
       <c r="S5">
-        <v>0.05488937474508165</v>
+        <v>0.001256838130540996</v>
       </c>
       <c r="T5">
-        <v>0.05488937474508165</v>
+        <v>0.001256838130540996</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -782,57 +782,57 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>23.2119891868043</v>
+        <v>13.94839233333333</v>
       </c>
       <c r="H6">
-        <v>23.2119891868043</v>
+        <v>41.845177</v>
       </c>
       <c r="I6">
-        <v>0.232832427653973</v>
+        <v>0.1372344453793459</v>
       </c>
       <c r="J6">
-        <v>0.232832427653973</v>
+        <v>0.137234445379346</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.42838078867439</v>
+        <v>2.697694</v>
       </c>
       <c r="N6">
-        <v>2.42838078867439</v>
+        <v>8.093081999999999</v>
       </c>
       <c r="O6">
-        <v>0.6006211821789871</v>
+        <v>0.6114630364782021</v>
       </c>
       <c r="P6">
-        <v>0.6006211821789871</v>
+        <v>0.611463036478202</v>
       </c>
       <c r="Q6">
-        <v>56.36754860815324</v>
+        <v>37.62849430727933</v>
       </c>
       <c r="R6">
-        <v>56.36754860815324</v>
+        <v>338.656448765514</v>
       </c>
       <c r="S6">
-        <v>0.1398440879471327</v>
+        <v>0.08391379068105684</v>
       </c>
       <c r="T6">
-        <v>0.1398440879471327</v>
+        <v>0.08391379068105684</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -844,57 +844,57 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>23.2119891868043</v>
+        <v>13.94839233333333</v>
       </c>
       <c r="H7">
-        <v>23.2119891868043</v>
+        <v>41.845177</v>
       </c>
       <c r="I7">
-        <v>0.232832427653973</v>
+        <v>0.1372344453793459</v>
       </c>
       <c r="J7">
-        <v>0.232832427653973</v>
+        <v>0.137234445379346</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.61473467366161</v>
+        <v>1.673768333333333</v>
       </c>
       <c r="N7">
-        <v>1.61473467366161</v>
+        <v>5.021305</v>
       </c>
       <c r="O7">
-        <v>0.399378817821013</v>
+        <v>0.3793786350346109</v>
       </c>
       <c r="P7">
-        <v>0.399378817821013</v>
+        <v>0.3793786350346108</v>
       </c>
       <c r="Q7">
-        <v>37.48120378459126</v>
+        <v>23.34637738844278</v>
       </c>
       <c r="R7">
-        <v>37.48120378459126</v>
+        <v>210.117396495985</v>
       </c>
       <c r="S7">
-        <v>0.09298833970684027</v>
+        <v>0.05206381656774812</v>
       </c>
       <c r="T7">
-        <v>0.09298833970684027</v>
+        <v>0.05206381656774813</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,60 +903,60 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>38.0163745112323</v>
+        <v>23.93812733333334</v>
       </c>
       <c r="H8">
-        <v>38.0163745112323</v>
+        <v>71.81438200000001</v>
       </c>
       <c r="I8">
-        <v>0.3813307294268758</v>
+        <v>0.2355207359746736</v>
       </c>
       <c r="J8">
-        <v>0.3813307294268758</v>
+        <v>0.2355207359746736</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>2.42838078867439</v>
+        <v>0.04040533333333333</v>
       </c>
       <c r="N8">
-        <v>2.42838078867439</v>
+        <v>0.121216</v>
       </c>
       <c r="O8">
-        <v>0.6006211821789871</v>
+        <v>0.009158328487187175</v>
       </c>
       <c r="P8">
-        <v>0.6006211821789871</v>
+        <v>0.009158328487187173</v>
       </c>
       <c r="Q8">
-        <v>92.31823351812727</v>
+        <v>0.9672280142791113</v>
       </c>
       <c r="R8">
-        <v>92.31823351812727</v>
+        <v>8.705052128512001</v>
       </c>
       <c r="S8">
-        <v>0.2290353135095456</v>
+        <v>0.002156976265600143</v>
       </c>
       <c r="T8">
-        <v>0.2290353135095456</v>
+        <v>0.002156976265600142</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>38.0163745112323</v>
+        <v>23.93812733333334</v>
       </c>
       <c r="H9">
-        <v>38.0163745112323</v>
+        <v>71.81438200000001</v>
       </c>
       <c r="I9">
-        <v>0.3813307294268758</v>
+        <v>0.2355207359746736</v>
       </c>
       <c r="J9">
-        <v>0.3813307294268758</v>
+        <v>0.2355207359746736</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.61473467366161</v>
+        <v>2.697694</v>
       </c>
       <c r="N9">
-        <v>1.61473467366161</v>
+        <v>8.093081999999999</v>
       </c>
       <c r="O9">
-        <v>0.399378817821013</v>
+        <v>0.6114630364782021</v>
       </c>
       <c r="P9">
-        <v>0.399378817821013</v>
+        <v>0.611463036478202</v>
       </c>
       <c r="Q9">
-        <v>61.38635809019223</v>
+        <v>64.57774247836934</v>
       </c>
       <c r="R9">
-        <v>61.38635809019223</v>
+        <v>581.199682305324</v>
       </c>
       <c r="S9">
-        <v>0.1522954159173302</v>
+        <v>0.1440122243726549</v>
       </c>
       <c r="T9">
-        <v>0.1522954159173302</v>
+        <v>0.1440122243726548</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.21365857844548</v>
+        <v>23.93812733333334</v>
       </c>
       <c r="H10">
-        <v>1.21365857844548</v>
+        <v>71.81438200000001</v>
       </c>
       <c r="I10">
-        <v>0.0121738413234818</v>
+        <v>0.2355207359746736</v>
       </c>
       <c r="J10">
-        <v>0.0121738413234818</v>
+        <v>0.2355207359746736</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.42838078867439</v>
+        <v>1.673768333333333</v>
       </c>
       <c r="N10">
-        <v>2.42838078867439</v>
+        <v>5.021305</v>
       </c>
       <c r="O10">
-        <v>0.6006211821789871</v>
+        <v>0.3793786350346109</v>
       </c>
       <c r="P10">
-        <v>0.6006211821789871</v>
+        <v>0.3793786350346108</v>
       </c>
       <c r="Q10">
-        <v>2.947225175906874</v>
+        <v>40.06687948983445</v>
       </c>
       <c r="R10">
-        <v>2.947225175906874</v>
+        <v>360.60191540851</v>
       </c>
       <c r="S10">
-        <v>0.007311866967369045</v>
+        <v>0.08935153533641865</v>
       </c>
       <c r="T10">
-        <v>0.007311866967369045</v>
+        <v>0.08935153533641864</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,55 +1089,365 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>38.75739366666667</v>
+      </c>
+      <c r="H11">
+        <v>116.272181</v>
+      </c>
+      <c r="I11">
+        <v>0.3813234742102279</v>
+      </c>
+      <c r="J11">
+        <v>0.3813234742102279</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.04040533333333333</v>
+      </c>
+      <c r="N11">
+        <v>0.121216</v>
+      </c>
+      <c r="O11">
+        <v>0.009158328487187175</v>
+      </c>
+      <c r="P11">
+        <v>0.009158328487187173</v>
+      </c>
+      <c r="Q11">
+        <v>1.566005410232889</v>
+      </c>
+      <c r="R11">
+        <v>14.094048692096</v>
+      </c>
+      <c r="S11">
+        <v>0.003492285636692715</v>
+      </c>
+      <c r="T11">
+        <v>0.003492285636692714</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>23</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1.21365857844548</v>
-      </c>
-      <c r="H11">
-        <v>1.21365857844548</v>
-      </c>
-      <c r="I11">
-        <v>0.0121738413234818</v>
-      </c>
-      <c r="J11">
-        <v>0.0121738413234818</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>1.61473467366161</v>
-      </c>
-      <c r="N11">
-        <v>1.61473467366161</v>
-      </c>
-      <c r="O11">
-        <v>0.399378817821013</v>
-      </c>
-      <c r="P11">
-        <v>0.399378817821013</v>
-      </c>
-      <c r="Q11">
-        <v>1.959736588602776</v>
-      </c>
-      <c r="R11">
-        <v>1.959736588602776</v>
-      </c>
-      <c r="S11">
-        <v>0.004861974356112759</v>
-      </c>
-      <c r="T11">
-        <v>0.004861974356112759</v>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>38.75739366666667</v>
+      </c>
+      <c r="H12">
+        <v>116.272181</v>
+      </c>
+      <c r="I12">
+        <v>0.3813234742102279</v>
+      </c>
+      <c r="J12">
+        <v>0.3813234742102279</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>2.697694</v>
+      </c>
+      <c r="N12">
+        <v>8.093081999999999</v>
+      </c>
+      <c r="O12">
+        <v>0.6114630364782021</v>
+      </c>
+      <c r="P12">
+        <v>0.611463036478202</v>
+      </c>
+      <c r="Q12">
+        <v>104.5555883502047</v>
+      </c>
+      <c r="R12">
+        <v>941.0002951518418</v>
+      </c>
+      <c r="S12">
+        <v>0.2331652094210034</v>
+      </c>
+      <c r="T12">
+        <v>0.2331652094210033</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>38.75739366666667</v>
+      </c>
+      <c r="H13">
+        <v>116.272181</v>
+      </c>
+      <c r="I13">
+        <v>0.3813234742102279</v>
+      </c>
+      <c r="J13">
+        <v>0.3813234742102279</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.673768333333333</v>
+      </c>
+      <c r="N13">
+        <v>5.021305</v>
+      </c>
+      <c r="O13">
+        <v>0.3793786350346109</v>
+      </c>
+      <c r="P13">
+        <v>0.3793786350346108</v>
+      </c>
+      <c r="Q13">
+        <v>64.87089820180056</v>
+      </c>
+      <c r="R13">
+        <v>583.838083816205</v>
+      </c>
+      <c r="S13">
+        <v>0.1446659791525319</v>
+      </c>
+      <c r="T13">
+        <v>0.1446659791525319</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1.273876</v>
+      </c>
+      <c r="H14">
+        <v>3.821628</v>
+      </c>
+      <c r="I14">
+        <v>0.01253332012494962</v>
+      </c>
+      <c r="J14">
+        <v>0.01253332012494962</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.04040533333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.121216</v>
+      </c>
+      <c r="O14">
+        <v>0.009158328487187175</v>
+      </c>
+      <c r="P14">
+        <v>0.009158328487187173</v>
+      </c>
+      <c r="Q14">
+        <v>0.05147138440533334</v>
+      </c>
+      <c r="R14">
+        <v>0.463242459648</v>
+      </c>
+      <c r="S14">
+        <v>0.0001147842627393624</v>
+      </c>
+      <c r="T14">
+        <v>0.0001147842627393624</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.273876</v>
+      </c>
+      <c r="H15">
+        <v>3.821628</v>
+      </c>
+      <c r="I15">
+        <v>0.01253332012494962</v>
+      </c>
+      <c r="J15">
+        <v>0.01253332012494962</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>2.697694</v>
+      </c>
+      <c r="N15">
+        <v>8.093081999999999</v>
+      </c>
+      <c r="O15">
+        <v>0.6114630364782021</v>
+      </c>
+      <c r="P15">
+        <v>0.611463036478202</v>
+      </c>
+      <c r="Q15">
+        <v>3.436527641944</v>
+      </c>
+      <c r="R15">
+        <v>30.928748777496</v>
+      </c>
+      <c r="S15">
+        <v>0.007663661980755056</v>
+      </c>
+      <c r="T15">
+        <v>0.007663661980755054</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.273876</v>
+      </c>
+      <c r="H16">
+        <v>3.821628</v>
+      </c>
+      <c r="I16">
+        <v>0.01253332012494962</v>
+      </c>
+      <c r="J16">
+        <v>0.01253332012494962</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.673768333333333</v>
+      </c>
+      <c r="N16">
+        <v>5.021305</v>
+      </c>
+      <c r="O16">
+        <v>0.3793786350346109</v>
+      </c>
+      <c r="P16">
+        <v>0.3793786350346108</v>
+      </c>
+      <c r="Q16">
+        <v>2.132173309393333</v>
+      </c>
+      <c r="R16">
+        <v>19.18955978454</v>
+      </c>
+      <c r="S16">
+        <v>0.004754873881455206</v>
+      </c>
+      <c r="T16">
+        <v>0.004754873881455205</v>
       </c>
     </row>
   </sheetData>
